--- a/Code/Results/Cases/Case_5_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.89994218374909</v>
+        <v>2.590158771791153</v>
       </c>
       <c r="C2">
-        <v>1.424632243274175</v>
+        <v>0.6531155350378413</v>
       </c>
       <c r="D2">
-        <v>0.01362129442009063</v>
+        <v>0.04807882700766442</v>
       </c>
       <c r="E2">
-        <v>0.1011361660369872</v>
+        <v>0.1195447155408829</v>
       </c>
       <c r="F2">
-        <v>3.308718861714112</v>
+        <v>3.384970243692777</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2441005432139178</v>
+        <v>0.2274430023333451</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001618388718207</v>
+        <v>1.80742071182388</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.234337664821567</v>
+        <v>2.437359848274127</v>
       </c>
       <c r="C3">
-        <v>1.226180551589209</v>
+        <v>0.6069069128337787</v>
       </c>
       <c r="D3">
-        <v>0.01225085707884688</v>
+        <v>0.04793712971836328</v>
       </c>
       <c r="E3">
-        <v>0.08991432193257864</v>
+        <v>0.1177158772567637</v>
       </c>
       <c r="F3">
-        <v>2.979889146566535</v>
+        <v>3.328819371221073</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2161654145443919</v>
+        <v>0.2223673216311681</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.040783344547179</v>
+        <v>1.822854897791139</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.835246241281311</v>
+        <v>2.345226233922006</v>
       </c>
       <c r="C4">
-        <v>1.107191951307584</v>
+        <v>0.5789541211847222</v>
       </c>
       <c r="D4">
-        <v>0.01141606972560538</v>
+        <v>0.04786182353945279</v>
       </c>
       <c r="E4">
-        <v>0.08322612480094094</v>
+        <v>0.1166596525626069</v>
       </c>
       <c r="F4">
-        <v>2.787033577865515</v>
+        <v>3.29650929750818</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1996145974088037</v>
+        <v>0.2193972202664654</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.067021898184876</v>
+        <v>1.832999409062658</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.674680782709117</v>
+        <v>2.308100492832921</v>
       </c>
       <c r="C5">
-        <v>1.05931508709898</v>
+        <v>0.5676671481161293</v>
       </c>
       <c r="D5">
-        <v>0.01107734141915628</v>
+        <v>0.04783410073699557</v>
       </c>
       <c r="E5">
-        <v>0.08054539367319791</v>
+        <v>0.1162459481883076</v>
       </c>
       <c r="F5">
-        <v>2.710455046032365</v>
+        <v>3.283883502477323</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1930025925398411</v>
+        <v>0.2182234284473736</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.078226263319515</v>
+        <v>1.837300489266397</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.648134505864732</v>
+        <v>2.301960999329992</v>
       </c>
       <c r="C6">
-        <v>1.05139920689976</v>
+        <v>0.565799194830447</v>
       </c>
       <c r="D6">
-        <v>0.01102117787732482</v>
+        <v>0.04782967717819275</v>
       </c>
       <c r="E6">
-        <v>0.08010279933548503</v>
+        <v>0.1161782609474393</v>
       </c>
       <c r="F6">
-        <v>2.69785357249512</v>
+        <v>3.281819546344749</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919121745996151</v>
+        <v>0.2180307210996304</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.080116599143423</v>
+        <v>1.838024749266694</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.833072856626643</v>
+        <v>2.344723850566311</v>
       </c>
       <c r="C7">
-        <v>1.106543923058268</v>
+        <v>0.5788014818782017</v>
       </c>
       <c r="D7">
-        <v>0.01141149589570034</v>
+        <v>0.04786143762296291</v>
       </c>
       <c r="E7">
-        <v>0.08318979779938473</v>
+        <v>0.1166540055885825</v>
       </c>
       <c r="F7">
-        <v>2.785992995331355</v>
+        <v>3.296336837125978</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1995249119535032</v>
+        <v>0.2193812424570183</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.067170979804686</v>
+        <v>1.83305673939676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.668231169316641</v>
+        <v>2.537121150666337</v>
       </c>
       <c r="C8">
-        <v>1.355543501589523</v>
+        <v>0.6370948311703728</v>
       </c>
       <c r="D8">
-        <v>0.01314723782901339</v>
+        <v>0.04802755628597311</v>
       </c>
       <c r="E8">
-        <v>0.09722108200402246</v>
+        <v>0.118900256927656</v>
       </c>
       <c r="F8">
-        <v>3.193292786911456</v>
+        <v>3.365157235577016</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2343317797022735</v>
+        <v>0.2256623641174258</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.014642805751834</v>
+        <v>1.812603304945874</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.399952171997995</v>
+        <v>2.928008787594422</v>
       </c>
       <c r="C9">
-        <v>1.872133283730307</v>
+        <v>0.7548098823408509</v>
       </c>
       <c r="D9">
-        <v>0.01661638974411517</v>
+        <v>0.04844512876842089</v>
       </c>
       <c r="E9">
-        <v>0.1266531407956641</v>
+        <v>0.1238371838021202</v>
       </c>
       <c r="F9">
-        <v>4.077433012537369</v>
+        <v>3.517501306237506</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3083281297647744</v>
+        <v>0.2391540164819759</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.931041613295136</v>
+        <v>1.777830493271864</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.758819629263144</v>
+        <v>3.223828490996596</v>
       </c>
       <c r="C10">
-        <v>2.278136448572297</v>
+        <v>0.8434814779429871</v>
       </c>
       <c r="D10">
-        <v>0.0192270209728953</v>
+        <v>0.04880664150098823</v>
       </c>
       <c r="E10">
-        <v>0.1499590010743148</v>
+        <v>0.1277933445842621</v>
       </c>
       <c r="F10">
-        <v>4.801442109380645</v>
+        <v>3.640317281162993</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3677806997093285</v>
+        <v>0.2498016674861674</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.884766466012934</v>
+        <v>1.75558719025139</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.403896393558739</v>
+        <v>3.360357790342334</v>
       </c>
       <c r="C11">
-        <v>2.471145590405968</v>
+        <v>0.8843206251108313</v>
       </c>
       <c r="D11">
-        <v>0.02043462875274571</v>
+        <v>0.04898273104966222</v>
       </c>
       <c r="E11">
-        <v>0.1610685871221165</v>
+        <v>0.129665624314562</v>
       </c>
       <c r="F11">
-        <v>5.153164516521855</v>
+        <v>3.698618511605162</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3963721419039388</v>
+        <v>0.254809598984167</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8679280982801458</v>
+        <v>1.74619687226803</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.652874522104753</v>
+        <v>3.412345509298802</v>
       </c>
       <c r="C12">
-        <v>2.545694014368223</v>
+        <v>0.8998594549823906</v>
       </c>
       <c r="D12">
-        <v>0.02089550041369037</v>
+        <v>0.04905106291827011</v>
       </c>
       <c r="E12">
-        <v>0.1653630863552351</v>
+        <v>0.130385128159233</v>
       </c>
       <c r="F12">
-        <v>5.290207896139748</v>
+        <v>3.721050406410285</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4074667708877371</v>
+        <v>0.256729930857432</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8622539030098864</v>
+        <v>1.742746698872011</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.599028553421363</v>
+        <v>3.401136172465272</v>
       </c>
       <c r="C13">
-        <v>2.529568965263138</v>
+        <v>0.8965095736118087</v>
       </c>
       <c r="D13">
-        <v>0.02079607146548668</v>
+        <v>0.0490362733738543</v>
       </c>
       <c r="E13">
-        <v>0.1644340336703465</v>
+        <v>0.1302297014287035</v>
       </c>
       <c r="F13">
-        <v>5.260510255574701</v>
+        <v>3.716203452947582</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4050646209763897</v>
+        <v>0.256315283317889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8634429721228685</v>
+        <v>1.743485036492572</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.424280414330724</v>
+        <v>3.364629067966803</v>
       </c>
       <c r="C14">
-        <v>2.477247771397629</v>
+        <v>0.885597522160765</v>
       </c>
       <c r="D14">
-        <v>0.02047246866657915</v>
+        <v>0.04898831980164786</v>
       </c>
       <c r="E14">
-        <v>0.1614200503571297</v>
+        <v>0.129724607228269</v>
       </c>
       <c r="F14">
-        <v>5.164357826214598</v>
+        <v>3.700456864757228</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3972792476840965</v>
+        <v>0.2549671042745274</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8674465862879401</v>
+        <v>1.74591089946135</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.317881796516303</v>
+        <v>3.342304951657525</v>
       </c>
       <c r="C15">
-        <v>2.44539840269141</v>
+        <v>0.8789232560890241</v>
       </c>
       <c r="D15">
-        <v>0.02027474193831935</v>
+        <v>0.0489591611428537</v>
       </c>
       <c r="E15">
-        <v>0.1595857782151526</v>
+        <v>0.1294165936187994</v>
       </c>
       <c r="F15">
-        <v>5.105984589500309</v>
+        <v>3.690857933777068</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3925468367713165</v>
+        <v>0.2541444324838125</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8699935400214116</v>
+        <v>1.74741061086462</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.717271516156018</v>
+        <v>3.214945856720988</v>
       </c>
       <c r="C16">
-        <v>2.265711626549603</v>
+        <v>0.8408227932679324</v>
       </c>
       <c r="D16">
-        <v>0.01914855986296615</v>
+        <v>0.04879536583211674</v>
       </c>
       <c r="E16">
-        <v>0.149244359997148</v>
+        <v>0.1276724537439549</v>
       </c>
       <c r="F16">
-        <v>4.77895806319637</v>
+        <v>3.636556498965888</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3659469751287361</v>
+        <v>0.2494777196240534</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8859594772280133</v>
+        <v>1.756215610390385</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.356254913918974</v>
+        <v>3.137320745216755</v>
       </c>
       <c r="C17">
-        <v>2.157782102134206</v>
+        <v>0.8175791947598441</v>
       </c>
       <c r="D17">
-        <v>0.01846325908692492</v>
+        <v>0.04869784666498589</v>
       </c>
       <c r="E17">
-        <v>0.1430397695447283</v>
+        <v>0.1266211260672314</v>
       </c>
       <c r="F17">
-        <v>4.584483370794032</v>
+        <v>3.603870524313891</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3500544641222376</v>
+        <v>0.2466571365859238</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.896895888732459</v>
+        <v>1.761804434660164</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.151083750414784</v>
+        <v>3.092856942101662</v>
       </c>
       <c r="C18">
-        <v>2.096468184244486</v>
+        <v>0.8042572348391559</v>
       </c>
       <c r="D18">
-        <v>0.01807092635097973</v>
+        <v>0.04864285274443958</v>
       </c>
       <c r="E18">
-        <v>0.1395178203363585</v>
+        <v>0.1260232594106547</v>
       </c>
       <c r="F18">
-        <v>4.474687477398732</v>
+        <v>3.585298998594453</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3410558793868859</v>
+        <v>0.2450502535665038</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9035759735641307</v>
+        <v>1.765087465476512</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.082018760022038</v>
+        <v>3.077833724529171</v>
       </c>
       <c r="C19">
-        <v>2.075832368912643</v>
+        <v>0.7997546924992207</v>
       </c>
       <c r="D19">
-        <v>0.0179383854979811</v>
+        <v>0.04862442177156012</v>
       </c>
       <c r="E19">
-        <v>0.1383329812448828</v>
+        <v>0.1258220028051191</v>
       </c>
       <c r="F19">
-        <v>4.437848912976818</v>
+        <v>3.579050113020287</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3380323202798223</v>
+        <v>0.2445088331996459</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9059020332888394</v>
+        <v>1.766210775429826</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.394423966720922</v>
+        <v>3.145564978607922</v>
       </c>
       <c r="C20">
-        <v>2.169190530272431</v>
+        <v>0.8200486238512212</v>
       </c>
       <c r="D20">
-        <v>0.01853601614553213</v>
+        <v>0.04870811442434686</v>
       </c>
       <c r="E20">
-        <v>0.1436953218461205</v>
+        <v>0.1267323343816571</v>
       </c>
       <c r="F20">
-        <v>4.604968013015139</v>
+        <v>3.607326310109187</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3517312134596864</v>
+        <v>0.2469557920352941</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8956907119999045</v>
+        <v>1.761202399370745</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.475473157240685</v>
+        <v>3.375344256750054</v>
       </c>
       <c r="C21">
-        <v>2.492573781515375</v>
+        <v>0.888800635602081</v>
       </c>
       <c r="D21">
-        <v>0.02056741519026062</v>
+        <v>0.04900236031050298</v>
       </c>
       <c r="E21">
-        <v>0.1623028245646765</v>
+        <v>0.1298726797554508</v>
       </c>
       <c r="F21">
-        <v>5.192489834407269</v>
+        <v>3.70507235992622</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3995583303498478</v>
+        <v>0.2553624449434437</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8662507081814255</v>
+        <v>1.74519548690229</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.209915955889073</v>
+        <v>3.527193906445973</v>
       </c>
       <c r="C22">
-        <v>2.712597062882708</v>
+        <v>0.9341658166572415</v>
       </c>
       <c r="D22">
-        <v>0.02191635308824047</v>
+        <v>0.04920427762484181</v>
       </c>
       <c r="E22">
-        <v>0.1749830818947871</v>
+        <v>0.131986385072878</v>
       </c>
       <c r="F22">
-        <v>5.599324278919283</v>
+        <v>3.771023564472614</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4324042416922964</v>
+        <v>0.2609963531016888</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8511621377302987</v>
+        <v>1.735350837760521</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.8150570984875</v>
+        <v>3.445993796063135</v>
       </c>
       <c r="C23">
-        <v>2.594271120167718</v>
+        <v>0.9099134716586263</v>
       </c>
       <c r="D23">
-        <v>0.02119417416651359</v>
+        <v>0.04909563855219545</v>
       </c>
       <c r="E23">
-        <v>0.1681623066165372</v>
+        <v>0.130852626609709</v>
       </c>
       <c r="F23">
-        <v>5.379852960826497</v>
+        <v>3.735633279034403</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4147110205338009</v>
+        <v>0.2579765436852881</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8587981360448964</v>
+        <v>1.740548336851774</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.377160378686597</v>
+        <v>3.14183725055284</v>
       </c>
       <c r="C24">
-        <v>2.16403050597188</v>
+        <v>0.8189320670900884</v>
       </c>
       <c r="D24">
-        <v>0.01850311757177892</v>
+        <v>0.04870346903219769</v>
       </c>
       <c r="E24">
-        <v>0.1433988070660135</v>
+        <v>0.1266820366888517</v>
       </c>
       <c r="F24">
-        <v>4.595700691368478</v>
+        <v>3.605763264225288</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3509727278130725</v>
+        <v>0.2468207241189049</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8962343566095967</v>
+        <v>1.761474361750018</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.91866671878995</v>
+        <v>2.820772391448827</v>
       </c>
       <c r="C25">
-        <v>1.728489714190175</v>
+        <v>0.7225891535520645</v>
       </c>
       <c r="D25">
-        <v>0.01566889538981897</v>
+        <v>0.0483224656412311</v>
       </c>
       <c r="E25">
-        <v>0.1184375711600012</v>
+        <v>0.1224441832956735</v>
       </c>
       <c r="F25">
-        <v>3.827007854459936</v>
+        <v>3.474397201050635</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2875467600226216</v>
+        <v>0.2353764591542671</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9512703816156005</v>
+        <v>1.786660944662046</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590158771791153</v>
+        <v>4.899942183749147</v>
       </c>
       <c r="C2">
-        <v>0.6531155350378413</v>
+        <v>1.424632243274459</v>
       </c>
       <c r="D2">
-        <v>0.04807882700766442</v>
+        <v>0.01362129442033222</v>
       </c>
       <c r="E2">
-        <v>0.1195447155408829</v>
+        <v>0.1011361660369765</v>
       </c>
       <c r="F2">
-        <v>3.384970243692777</v>
+        <v>3.308718861714055</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2274430023333451</v>
+        <v>0.2441005432137331</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.80742071182388</v>
+        <v>1.001618388718192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.437359848274127</v>
+        <v>4.23433766482151</v>
       </c>
       <c r="C3">
-        <v>0.6069069128337787</v>
+        <v>1.226180551589152</v>
       </c>
       <c r="D3">
-        <v>0.04793712971836328</v>
+        <v>0.01225085707860885</v>
       </c>
       <c r="E3">
-        <v>0.1177158772567637</v>
+        <v>0.08991432193254312</v>
       </c>
       <c r="F3">
-        <v>3.328819371221073</v>
+        <v>2.979889146566535</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2223673216311681</v>
+        <v>0.2161654145445056</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.822854897791139</v>
+        <v>1.040783344547158</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.345226233922006</v>
+        <v>3.835246241281425</v>
       </c>
       <c r="C4">
-        <v>0.5789541211847222</v>
+        <v>1.107191951307641</v>
       </c>
       <c r="D4">
-        <v>0.04786182353945279</v>
+        <v>0.01141606972572262</v>
       </c>
       <c r="E4">
-        <v>0.1166596525626069</v>
+        <v>0.08322612480094094</v>
       </c>
       <c r="F4">
-        <v>3.29650929750818</v>
+        <v>2.787033577865515</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2193972202664654</v>
+        <v>0.199614597408825</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.832999409062658</v>
+        <v>1.06702189818494</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.308100492832921</v>
+        <v>3.674680782709231</v>
       </c>
       <c r="C5">
-        <v>0.5676671481161293</v>
+        <v>1.059315087099094</v>
       </c>
       <c r="D5">
-        <v>0.04783410073699557</v>
+        <v>0.01107734141916694</v>
       </c>
       <c r="E5">
-        <v>0.1162459481883076</v>
+        <v>0.08054539367314106</v>
       </c>
       <c r="F5">
-        <v>3.283883502477323</v>
+        <v>2.710455046032365</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2182234284473736</v>
+        <v>0.1930025925398695</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.837300489266397</v>
+        <v>1.078226263319479</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.301960999329992</v>
+        <v>3.648134505864732</v>
       </c>
       <c r="C6">
-        <v>0.565799194830447</v>
+        <v>1.051399206899987</v>
       </c>
       <c r="D6">
-        <v>0.04782967717819275</v>
+        <v>0.01102117787744206</v>
       </c>
       <c r="E6">
-        <v>0.1161782609474393</v>
+        <v>0.08010279933549214</v>
       </c>
       <c r="F6">
-        <v>3.281819546344749</v>
+        <v>2.697853572495106</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2180307210996304</v>
+        <v>0.191912174599679</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.838024749266694</v>
+        <v>1.080116599143423</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.344723850566311</v>
+        <v>3.833072856626586</v>
       </c>
       <c r="C7">
-        <v>0.5788014818782017</v>
+        <v>1.106543923058211</v>
       </c>
       <c r="D7">
-        <v>0.04786143762296291</v>
+        <v>0.01141149589560086</v>
       </c>
       <c r="E7">
-        <v>0.1166540055885825</v>
+        <v>0.08318979779939184</v>
       </c>
       <c r="F7">
-        <v>3.296336837125978</v>
+        <v>2.785992995331355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2193812424570183</v>
+        <v>0.1995249119534535</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.83305673939676</v>
+        <v>1.0671709798047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537121150666337</v>
+        <v>4.668231169316527</v>
       </c>
       <c r="C8">
-        <v>0.6370948311703728</v>
+        <v>1.355543501589807</v>
       </c>
       <c r="D8">
-        <v>0.04802755628597311</v>
+        <v>0.01314723782904537</v>
       </c>
       <c r="E8">
-        <v>0.118900256927656</v>
+        <v>0.09722108200396917</v>
       </c>
       <c r="F8">
-        <v>3.365157235577016</v>
+        <v>3.1932927869114</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2256623641174258</v>
+        <v>0.2343317797023587</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.812603304945874</v>
+        <v>1.014642805751812</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.928008787594422</v>
+        <v>6.399952171997711</v>
       </c>
       <c r="C9">
-        <v>0.7548098823408509</v>
+        <v>1.872133283730022</v>
       </c>
       <c r="D9">
-        <v>0.04844512876842089</v>
+        <v>0.01661638974398016</v>
       </c>
       <c r="E9">
-        <v>0.1238371838021202</v>
+        <v>0.1266531407956961</v>
       </c>
       <c r="F9">
-        <v>3.517501306237506</v>
+        <v>4.077433012537341</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2391540164819759</v>
+        <v>0.3083281297648313</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.777830493271864</v>
+        <v>0.9310416132951502</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.223828490996596</v>
+        <v>7.758819629263144</v>
       </c>
       <c r="C10">
-        <v>0.8434814779429871</v>
+        <v>2.278136448572468</v>
       </c>
       <c r="D10">
-        <v>0.04880664150098823</v>
+        <v>0.01922702097297702</v>
       </c>
       <c r="E10">
-        <v>0.1277933445842621</v>
+        <v>0.1499590010743574</v>
       </c>
       <c r="F10">
-        <v>3.640317281162993</v>
+        <v>4.801442109380616</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2498016674861674</v>
+        <v>0.3677806997094706</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.75558719025139</v>
+        <v>0.884766466012934</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.360357790342334</v>
+        <v>8.403896393558739</v>
       </c>
       <c r="C11">
-        <v>0.8843206251108313</v>
+        <v>2.471145590405911</v>
       </c>
       <c r="D11">
-        <v>0.04898273104966222</v>
+        <v>0.02043462875288782</v>
       </c>
       <c r="E11">
-        <v>0.129665624314562</v>
+        <v>0.1610685871221875</v>
       </c>
       <c r="F11">
-        <v>3.698618511605162</v>
+        <v>5.153164516521883</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.254809598984167</v>
+        <v>0.3963721419042798</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.74619687226803</v>
+        <v>0.8679280982801316</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.412345509298802</v>
+        <v>8.652874522104639</v>
       </c>
       <c r="C12">
-        <v>0.8998594549823906</v>
+        <v>2.545694014367996</v>
       </c>
       <c r="D12">
-        <v>0.04905106291827011</v>
+        <v>0.02089550041390709</v>
       </c>
       <c r="E12">
-        <v>0.130385128159233</v>
+        <v>0.1653630863552777</v>
       </c>
       <c r="F12">
-        <v>3.721050406410285</v>
+        <v>5.290207896139776</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.256729930857432</v>
+        <v>0.4074667708877087</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.742746698872011</v>
+        <v>0.8622539030098721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.401136172465272</v>
+        <v>8.599028553421533</v>
       </c>
       <c r="C13">
-        <v>0.8965095736118087</v>
+        <v>2.529568965262911</v>
       </c>
       <c r="D13">
-        <v>0.0490362733738543</v>
+        <v>0.02079607146504969</v>
       </c>
       <c r="E13">
-        <v>0.1302297014287035</v>
+        <v>0.1644340336702754</v>
       </c>
       <c r="F13">
-        <v>3.716203452947582</v>
+        <v>5.260510255574673</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.256315283317889</v>
+        <v>0.4050646209766029</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.743485036492572</v>
+        <v>0.8634429721227974</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.364629067966803</v>
+        <v>8.424280414330497</v>
       </c>
       <c r="C14">
-        <v>0.885597522160765</v>
+        <v>2.477247771397572</v>
       </c>
       <c r="D14">
-        <v>0.04898831980164786</v>
+        <v>0.02047246866688468</v>
       </c>
       <c r="E14">
-        <v>0.129724607228269</v>
+        <v>0.161420050357215</v>
       </c>
       <c r="F14">
-        <v>3.700456864757228</v>
+        <v>5.164357826214626</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2549671042745274</v>
+        <v>0.3972792476842244</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.74591089946135</v>
+        <v>0.8674465862879117</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.342304951657525</v>
+        <v>8.31788179651636</v>
       </c>
       <c r="C15">
-        <v>0.8789232560890241</v>
+        <v>2.445398402691694</v>
       </c>
       <c r="D15">
-        <v>0.0489591611428537</v>
+        <v>0.02027474193854673</v>
       </c>
       <c r="E15">
-        <v>0.1294165936187994</v>
+        <v>0.1595857782151526</v>
       </c>
       <c r="F15">
-        <v>3.690857933777068</v>
+        <v>5.105984589500281</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2541444324838125</v>
+        <v>0.3925468367713307</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.74741061086462</v>
+        <v>0.869993540021369</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.214945856720988</v>
+        <v>7.717271516156131</v>
       </c>
       <c r="C16">
-        <v>0.8408227932679324</v>
+        <v>2.26571162654966</v>
       </c>
       <c r="D16">
-        <v>0.04879536583211674</v>
+        <v>0.01914855986257891</v>
       </c>
       <c r="E16">
-        <v>0.1276724537439549</v>
+        <v>0.1492443599971409</v>
       </c>
       <c r="F16">
-        <v>3.636556498965888</v>
+        <v>4.778958063196399</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2494777196240534</v>
+        <v>0.3659469751286366</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.756215610390385</v>
+        <v>0.8859594772280133</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.137320745216755</v>
+        <v>7.356254913918974</v>
       </c>
       <c r="C17">
-        <v>0.8175791947598441</v>
+        <v>2.15778210213432</v>
       </c>
       <c r="D17">
-        <v>0.04869784666498589</v>
+        <v>0.01846325908714874</v>
       </c>
       <c r="E17">
-        <v>0.1266211260672314</v>
+        <v>0.1430397695447319</v>
       </c>
       <c r="F17">
-        <v>3.603870524313891</v>
+        <v>4.584483370794032</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2466571365859238</v>
+        <v>0.3500544641222518</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.761804434660164</v>
+        <v>0.89689588873253</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.092856942101662</v>
+        <v>7.151083750414784</v>
       </c>
       <c r="C18">
-        <v>0.8042572348391559</v>
+        <v>2.096468184244486</v>
       </c>
       <c r="D18">
-        <v>0.04864285274443958</v>
+        <v>0.01807092635066709</v>
       </c>
       <c r="E18">
-        <v>0.1260232594106547</v>
+        <v>0.1395178203364225</v>
       </c>
       <c r="F18">
-        <v>3.585298998594453</v>
+        <v>4.474687477398732</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2450502535665038</v>
+        <v>0.3410558793869143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.765087465476512</v>
+        <v>0.9035759735641449</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.077833724529171</v>
+        <v>7.082018760022379</v>
       </c>
       <c r="C19">
-        <v>0.7997546924992207</v>
+        <v>2.075832368912131</v>
       </c>
       <c r="D19">
-        <v>0.04862442177156012</v>
+        <v>0.01793838549833637</v>
       </c>
       <c r="E19">
-        <v>0.1258220028051191</v>
+        <v>0.1383329812449219</v>
       </c>
       <c r="F19">
-        <v>3.579050113020287</v>
+        <v>4.43784891297679</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2445088331996459</v>
+        <v>0.3380323202797086</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.766210775429826</v>
+        <v>0.9059020332888821</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.145564978607922</v>
+        <v>7.394423966720865</v>
       </c>
       <c r="C20">
-        <v>0.8200486238512212</v>
+        <v>2.169190530272715</v>
       </c>
       <c r="D20">
-        <v>0.04870811442434686</v>
+        <v>0.01853601614532252</v>
       </c>
       <c r="E20">
-        <v>0.1267323343816571</v>
+        <v>0.1436953218460921</v>
       </c>
       <c r="F20">
-        <v>3.607326310109187</v>
+        <v>4.604968013015053</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2469557920352941</v>
+        <v>0.3517312134597148</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.761202399370745</v>
+        <v>0.8956907119999187</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.375344256750054</v>
+        <v>8.475473157240572</v>
       </c>
       <c r="C21">
-        <v>0.888800635602081</v>
+        <v>2.492573781515375</v>
       </c>
       <c r="D21">
-        <v>0.04900236031050298</v>
+        <v>0.02056741519007588</v>
       </c>
       <c r="E21">
-        <v>0.1298726797554508</v>
+        <v>0.1623028245646552</v>
       </c>
       <c r="F21">
-        <v>3.70507235992622</v>
+        <v>5.19248983440724</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2553624449434437</v>
+        <v>0.3995583303499188</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.74519548690229</v>
+        <v>0.8662507081814823</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.527193906445973</v>
+        <v>9.209915955889073</v>
       </c>
       <c r="C22">
-        <v>0.9341658166572415</v>
+        <v>2.712597062882764</v>
       </c>
       <c r="D22">
-        <v>0.04920427762484181</v>
+        <v>0.02191635308842876</v>
       </c>
       <c r="E22">
-        <v>0.131986385072878</v>
+        <v>0.1749830818948723</v>
       </c>
       <c r="F22">
-        <v>3.771023564472614</v>
+        <v>5.599324278919312</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2609963531016888</v>
+        <v>0.4324042416925096</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.735350837760521</v>
+        <v>0.8511621377302561</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.445993796063135</v>
+        <v>8.815057098487728</v>
       </c>
       <c r="C23">
-        <v>0.9099134716586263</v>
+        <v>2.594271120167605</v>
       </c>
       <c r="D23">
-        <v>0.04909563855219545</v>
+        <v>0.02119417416650293</v>
       </c>
       <c r="E23">
-        <v>0.130852626609709</v>
+        <v>0.1681623066165301</v>
       </c>
       <c r="F23">
-        <v>3.735633279034403</v>
+        <v>5.379852960826554</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2579765436852881</v>
+        <v>0.4147110205336588</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.740548336851774</v>
+        <v>0.8587981360448964</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.14183725055284</v>
+        <v>7.377160378686597</v>
       </c>
       <c r="C24">
-        <v>0.8189320670900884</v>
+        <v>2.164030505971937</v>
       </c>
       <c r="D24">
-        <v>0.04870346903219769</v>
+        <v>0.01850311757177892</v>
       </c>
       <c r="E24">
-        <v>0.1266820366888517</v>
+        <v>0.143398807066017</v>
       </c>
       <c r="F24">
-        <v>3.605763264225288</v>
+        <v>4.595700691368449</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2468207241189049</v>
+        <v>0.3509727278130157</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.761474361750018</v>
+        <v>0.8962343566095967</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.820772391448827</v>
+        <v>5.918666718789666</v>
       </c>
       <c r="C25">
-        <v>0.7225891535520645</v>
+        <v>1.728489714190175</v>
       </c>
       <c r="D25">
-        <v>0.0483224656412311</v>
+        <v>0.01566889538982252</v>
       </c>
       <c r="E25">
-        <v>0.1224441832956735</v>
+        <v>0.1184375711600048</v>
       </c>
       <c r="F25">
-        <v>3.474397201050635</v>
+        <v>3.827007854459936</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2353764591542671</v>
+        <v>0.2875467600225505</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.786660944662046</v>
+        <v>0.9512703816156147</v>
       </c>
       <c r="O25">
         <v>0</v>
